--- a/biology/Botanique/Arctotheca/Arctotheca.xlsx
+++ b/biology/Botanique/Arctotheca/Arctotheca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctotheca est un genre de plante à fleurs de la famille des Asteraceae. Les espèces sont parfois appelées par le nom francisé d'arctothèque.
 Le genre comprend peu d'espèces. L'une d'elles est Arctotheca calendula, plante endémique d'Afrique du Sud, naturalisée en Europe occidentale.
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous-famille des  Cichorioideae 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-famille des  Cichorioideae 
 Tribu des  Arctotideae 
-Sous-tribu  Arctotidinae   [2]</t>
+Sous-tribu  Arctotidinae   </t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctotheca calendula 		(L.) Levyns
 Arctotheca forbesiana 		K.Lewin
